--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.573984787646013</v>
+        <v>0.7004376666666666</v>
       </c>
       <c r="H2">
-        <v>0.573984787646013</v>
+        <v>2.101313</v>
       </c>
       <c r="I2">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="J2">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>25.883487862168</v>
+        <v>0.06547366666666667</v>
       </c>
       <c r="N2">
-        <v>25.883487862168</v>
+        <v>0.196421</v>
       </c>
       <c r="O2">
-        <v>0.8449145235622756</v>
+        <v>0.002125877360986814</v>
       </c>
       <c r="P2">
-        <v>0.8449145235622756</v>
+        <v>0.002125877360986814</v>
       </c>
       <c r="Q2">
-        <v>14.85672828410465</v>
+        <v>0.04586022230811111</v>
       </c>
       <c r="R2">
-        <v>14.85672828410465</v>
+        <v>0.412742000773</v>
       </c>
       <c r="S2">
-        <v>0.03171411968220542</v>
+        <v>9.591886436854393E-05</v>
       </c>
       <c r="T2">
-        <v>0.03171411968220542</v>
+        <v>9.591886436854392E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.573984787646013</v>
+        <v>0.7004376666666666</v>
       </c>
       <c r="H3">
-        <v>0.573984787646013</v>
+        <v>2.101313</v>
       </c>
       <c r="I3">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="J3">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.75095756438197</v>
+        <v>25.94643066666667</v>
       </c>
       <c r="N3">
-        <v>4.75095756438197</v>
+        <v>77.839292</v>
       </c>
       <c r="O3">
-        <v>0.1550854764377244</v>
+        <v>0.8424597607080814</v>
       </c>
       <c r="P3">
-        <v>0.1550854764377244</v>
+        <v>0.8424597607080814</v>
       </c>
       <c r="Q3">
-        <v>2.726977368707004</v>
+        <v>18.17385735448844</v>
       </c>
       <c r="R3">
-        <v>2.726977368707004</v>
+        <v>163.564716190396</v>
       </c>
       <c r="S3">
-        <v>0.00582117980406017</v>
+        <v>0.03801149822010624</v>
       </c>
       <c r="T3">
-        <v>0.00582117980406017</v>
+        <v>0.03801149822010623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.208459423026426</v>
+        <v>0.7004376666666666</v>
       </c>
       <c r="H4">
-        <v>0.208459423026426</v>
+        <v>2.101313</v>
       </c>
       <c r="I4">
-        <v>0.0136320457308994</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="J4">
-        <v>0.0136320457308994</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.883487862168</v>
+        <v>4.786517</v>
       </c>
       <c r="N4">
-        <v>25.883487862168</v>
+        <v>14.359551</v>
       </c>
       <c r="O4">
-        <v>0.8449145235622756</v>
+        <v>0.1554143619309319</v>
       </c>
       <c r="P4">
-        <v>0.8449145235622756</v>
+        <v>0.1554143619309319</v>
       </c>
       <c r="Q4">
-        <v>5.395656945659042</v>
+        <v>3.352656798940333</v>
       </c>
       <c r="R4">
-        <v>5.395656945659042</v>
+        <v>30.173911190463</v>
       </c>
       <c r="S4">
-        <v>0.01151791342390202</v>
+        <v>0.007012243216164205</v>
       </c>
       <c r="T4">
-        <v>0.01151791342390202</v>
+        <v>0.007012243216164204</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.208459423026426</v>
+        <v>0.237305</v>
       </c>
       <c r="H5">
-        <v>0.208459423026426</v>
+        <v>0.711915</v>
       </c>
       <c r="I5">
-        <v>0.0136320457308994</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="J5">
-        <v>0.0136320457308994</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.75095756438197</v>
+        <v>0.06547366666666667</v>
       </c>
       <c r="N5">
-        <v>4.75095756438197</v>
+        <v>0.196421</v>
       </c>
       <c r="O5">
-        <v>0.1550854764377244</v>
+        <v>0.002125877360986814</v>
       </c>
       <c r="P5">
-        <v>0.1550854764377244</v>
+        <v>0.002125877360986814</v>
       </c>
       <c r="Q5">
-        <v>0.9903818726940997</v>
+        <v>0.01553722846833333</v>
       </c>
       <c r="R5">
-        <v>0.9903818726940997</v>
+        <v>0.139835056215</v>
       </c>
       <c r="S5">
-        <v>0.00211413230699738</v>
+        <v>3.249686187965903E-05</v>
       </c>
       <c r="T5">
-        <v>0.00211413230699738</v>
+        <v>3.249686187965903E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.5094222590766</v>
+        <v>0.237305</v>
       </c>
       <c r="H6">
-        <v>14.5094222590766</v>
+        <v>0.711915</v>
       </c>
       <c r="I6">
-        <v>0.948832654782835</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="J6">
-        <v>0.948832654782835</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.883487862168</v>
+        <v>25.94643066666667</v>
       </c>
       <c r="N6">
-        <v>25.883487862168</v>
+        <v>77.839292</v>
       </c>
       <c r="O6">
-        <v>0.8449145235622756</v>
+        <v>0.8424597607080814</v>
       </c>
       <c r="P6">
-        <v>0.8449145235622756</v>
+        <v>0.8424597607080814</v>
       </c>
       <c r="Q6">
-        <v>375.5544549298794</v>
+        <v>6.157217729353333</v>
       </c>
       <c r="R6">
-        <v>375.5544549298794</v>
+        <v>55.41495956417999</v>
       </c>
       <c r="S6">
-        <v>0.8016824904561681</v>
+        <v>0.0128781175176506</v>
       </c>
       <c r="T6">
-        <v>0.8016824904561681</v>
+        <v>0.0128781175176506</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.5094222590766</v>
+        <v>0.237305</v>
       </c>
       <c r="H7">
-        <v>14.5094222590766</v>
+        <v>0.711915</v>
       </c>
       <c r="I7">
-        <v>0.948832654782835</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="J7">
-        <v>0.948832654782835</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.75095756438197</v>
+        <v>4.786517</v>
       </c>
       <c r="N7">
-        <v>4.75095756438197</v>
+        <v>14.359551</v>
       </c>
       <c r="O7">
-        <v>0.1550854764377244</v>
+        <v>0.1554143619309319</v>
       </c>
       <c r="P7">
-        <v>0.1550854764377244</v>
+        <v>0.1554143619309319</v>
       </c>
       <c r="Q7">
-        <v>68.93364943657211</v>
+        <v>1.135864416685</v>
       </c>
       <c r="R7">
-        <v>68.93364943657211</v>
+        <v>10.222779750165</v>
       </c>
       <c r="S7">
-        <v>0.1471501643266669</v>
+        <v>0.002375715150115923</v>
       </c>
       <c r="T7">
-        <v>0.1471501643266669</v>
+        <v>0.002375715150115923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>14.58625866666667</v>
+      </c>
+      <c r="H8">
+        <v>43.758776</v>
+      </c>
+      <c r="I8">
+        <v>0.9395940101697148</v>
+      </c>
+      <c r="J8">
+        <v>0.9395940101697148</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.06547366666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.196421</v>
+      </c>
+      <c r="O8">
+        <v>0.002125877360986814</v>
+      </c>
+      <c r="P8">
+        <v>0.002125877360986814</v>
+      </c>
+      <c r="Q8">
+        <v>0.955015837855111</v>
+      </c>
+      <c r="R8">
+        <v>8.595142540696001</v>
+      </c>
+      <c r="S8">
+        <v>0.001997461634738611</v>
+      </c>
+      <c r="T8">
+        <v>0.001997461634738611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>14.58625866666667</v>
+      </c>
+      <c r="H9">
+        <v>43.758776</v>
+      </c>
+      <c r="I9">
+        <v>0.9395940101697148</v>
+      </c>
+      <c r="J9">
+        <v>0.9395940101697148</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>25.94643066666667</v>
+      </c>
+      <c r="N9">
+        <v>77.839292</v>
+      </c>
+      <c r="O9">
+        <v>0.8424597607080814</v>
+      </c>
+      <c r="P9">
+        <v>0.8424597607080814</v>
+      </c>
+      <c r="Q9">
+        <v>378.4613491807324</v>
+      </c>
+      <c r="R9">
+        <v>3406.152142626592</v>
+      </c>
+      <c r="S9">
+        <v>0.7915701449703245</v>
+      </c>
+      <c r="T9">
+        <v>0.7915701449703245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>14.58625866666667</v>
+      </c>
+      <c r="H10">
+        <v>43.758776</v>
+      </c>
+      <c r="I10">
+        <v>0.9395940101697148</v>
+      </c>
+      <c r="J10">
+        <v>0.9395940101697148</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.786517</v>
+      </c>
+      <c r="N10">
+        <v>14.359551</v>
+      </c>
+      <c r="O10">
+        <v>0.1554143619309319</v>
+      </c>
+      <c r="P10">
+        <v>0.1554143619309319</v>
+      </c>
+      <c r="Q10">
+        <v>69.81737507439733</v>
+      </c>
+      <c r="R10">
+        <v>628.356375669576</v>
+      </c>
+      <c r="S10">
+        <v>0.1460264035646517</v>
+      </c>
+      <c r="T10">
+        <v>0.1460264035646517</v>
       </c>
     </row>
   </sheetData>
